--- a/Word-Printer/samples/Level4/四层组织/17 ZRXX-20000-BR-P-01 业务关系管理程序记录/ZRXX-20000-BR-R-02 客户回访记录及问题跟踪表(季度).xlsx
+++ b/Word-Printer/samples/Level4/四层组织/17 ZRXX-20000-BR-P-01 业务关系管理程序记录/ZRXX-20000-BR-R-02 客户回访记录及问题跟踪表(季度).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\WordPrinter\Word-Printer\samples\Level4\四层组织\17 ZRXX-20000-BR-P-01 业务关系管理程序记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32770" yWindow="32770" windowWidth="19080" windowHeight="11020"/>
+    <workbookView xWindow="32775" yWindow="32775" windowWidth="19080" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="客户回访记录及问题跟踪表" sheetId="1" r:id="rId1"/>
@@ -125,11 +130,19 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
+    <t>服务是否满足要求</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
     <t>项目甲方名称</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>服务回访时间</t>
+    <t>甲方联系人姓名</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -137,22 +150,14 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>甲方联系人姓名</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务是否满足要求</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
+    <t>服务回访时间</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -714,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -750,10 +755,52 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,6 +809,15 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -781,60 +837,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -863,6 +874,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -911,7 +925,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -946,7 +960,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1158,185 +1172,185 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.9140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="4.58203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.9140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="16" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.4140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="3" customWidth="1"/>
     <col min="7" max="8" width="12.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="13" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.58203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.9140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="36"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="21"/>
       <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="G3" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="39" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="G4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="15" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+    </row>
+    <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="33" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="21"/>
+      <c r="C9" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="38"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
       <c r="G9" s="9"/>
@@ -1345,11 +1359,11 @@
       <c r="J9" s="7"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="8"/>
       <c r="F10" s="7"/>
       <c r="G10" s="9"/>
@@ -1358,59 +1372,59 @@
       <c r="J10" s="7"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="33" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
@@ -1419,11 +1433,11 @@
       <c r="J13" s="7"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="7"/>
@@ -1432,77 +1446,90 @@
       <c r="J14" s="11"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="29">
         <v>0</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="29">
         <v>0</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36">
         <v>0</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:K17"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -1517,19 +1544,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:K6"/>
     <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:K17"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <dataValidations count="1">

--- a/Word-Printer/samples/Level4/四层组织/17 ZRXX-20000-BR-P-01 业务关系管理程序记录/ZRXX-20000-BR-R-02 客户回访记录及问题跟踪表(季度).xlsx
+++ b/Word-Printer/samples/Level4/四层组织/17 ZRXX-20000-BR-P-01 业务关系管理程序记录/ZRXX-20000-BR-R-02 客户回访记录及问题跟踪表(季度).xlsx
@@ -764,8 +764,47 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -779,73 +818,34 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -1191,125 +1191,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="28"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="29" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
@@ -1318,10 +1318,10 @@
       <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="14" t="s">
         <v>11</v>
       </c>
@@ -1347,10 +1347,10 @@
     <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="38"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
       <c r="G9" s="9"/>
@@ -1362,8 +1362,8 @@
     <row r="10" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="8"/>
       <c r="F10" s="7"/>
       <c r="G10" s="9"/>
@@ -1373,19 +1373,19 @@
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
@@ -1394,10 +1394,10 @@
       <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="14" t="s">
         <v>20</v>
       </c>
@@ -1423,8 +1423,8 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
@@ -1436,8 +1436,8 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="7"/>
@@ -1447,89 +1447,76 @@
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="29">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28">
         <v>0</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="29">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28">
         <v>0</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18">
         <v>0</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:K17"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
@@ -1544,6 +1531,19 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:K6"/>
     <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:K17"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <dataValidations count="1">
